--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1806.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1806.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147247064218245</v>
+        <v>0.8464730381965637</v>
       </c>
       <c r="B1">
-        <v>2.282935614057609</v>
+        <v>1.695471882820129</v>
       </c>
       <c r="C1">
-        <v>3.916973317008864</v>
+        <v>6.239840507507324</v>
       </c>
       <c r="D1">
-        <v>3.106676827158887</v>
+        <v>1.901181221008301</v>
       </c>
       <c r="E1">
-        <v>1.175597707618222</v>
+        <v>1.152170896530151</v>
       </c>
     </row>
   </sheetData>
